--- a/tags/tags.xlsx
+++ b/tags/tags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1-CS\0-刷题\Coding4Interviews\tags\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonia/Documents/CSStudy/LeetCode/Coding4Interviews/tags/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0788E7A-49BD-4DAF-BB6D-BE801BD271E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6311361A-6436-4640-B94F-37450CD6DA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{29E8190F-DBC0-46EE-A311-8F3489E8E6BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21820" windowHeight="14020" xr2:uid="{29E8190F-DBC0-46EE-A311-8F3489E8E6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Stack" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,38 +53,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>155. Min Stack</t>
-  </si>
-  <si>
     <t>Easy</t>
   </si>
   <si>
-    <t>716. Max Stack</t>
-  </si>
-  <si>
-    <t>232. Implement Queue using Stacks</t>
-  </si>
-  <si>
-    <t>150. Evaluate Reverse Polish Notation</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>224. Basic Calculator</t>
-  </si>
-  <si>
     <t>Hard</t>
-  </si>
-  <si>
-    <t>227. Basic Calculator II【体感很难】</t>
-  </si>
-  <si>
-    <t>772. Basic Calculator III【巨难】</t>
-  </si>
-  <si>
-    <t>770. Basic Calculator IV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Hard</t>
@@ -95,23 +70,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20. Valid Parentheses</t>
-  </si>
-  <si>
-    <t>1472. Design Browser History</t>
-  </si>
-  <si>
-    <t>1209. Remove All Adjacent Duplicates in String II</t>
-  </si>
-  <si>
-    <t>1249. Minimum Remove to Make Valid Parentheses</t>
-  </si>
-  <si>
-    <t>735. Asteroid Collision</t>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design a Stack with Increment Operation</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>Max Stack</t>
+  </si>
+  <si>
+    <t>Basic Calculator</t>
+  </si>
+  <si>
+    <t>Basic Calculator II【体感很难】</t>
+  </si>
+  <si>
+    <t>Basic Calculator III【巨难】</t>
+  </si>
+  <si>
+    <t>Design Browser History</t>
+  </si>
+  <si>
+    <t>Remove All Adjacent Duplicates in String II</t>
+  </si>
+  <si>
+    <t>Minimum Remove to Make Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Asteroid Collision</t>
+  </si>
+  <si>
+    <t>Basic Calculator IV【无敌难】</t>
   </si>
 </sst>
 </file>
@@ -122,14 +115,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -157,15 +150,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,168 +479,228 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4674DA57-77AF-41B2-A9FB-0399C0341C86}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="29.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="2"/>
+    <col min="4" max="4" width="15.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>155</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3">
+        <v>44702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>716</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>232</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>150</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
-        <v>44702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="D5" s="3">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>224</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>44703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>44703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1">
-        <v>44705</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>44720</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>44759</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>227</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
         <v>44721</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>44760</v>
       </c>
       <c r="F7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>772</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3">
         <v>44729</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>44760</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>770</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3">
         <v>44760</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1472</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>44763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1209</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1249</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1381</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>735</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/tags/tags.xlsx
+++ b/tags/tags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonia/Documents/CSStudy/LeetCode/Coding4Interviews/tags/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6311361A-6436-4640-B94F-37450CD6DA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E70137-17B6-3C45-868F-B2FA79A1CF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21820" windowHeight="14020" xr2:uid="{29E8190F-DBC0-46EE-A311-8F3489E8E6BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{29E8190F-DBC0-46EE-A311-8F3489E8E6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Stack" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -675,6 +675,12 @@
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>44847</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -696,6 +702,12 @@
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>44847</v>
       </c>
     </row>
   </sheetData>

--- a/tags/tags.xlsx
+++ b/tags/tags.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonia/Documents/CSStudy/LeetCode/Coding4Interviews/tags/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E70137-17B6-3C45-868F-B2FA79A1CF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B1DECA-E029-8C44-9249-2FA9A3BFAEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{29E8190F-DBC0-46EE-A311-8F3489E8E6BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19840" activeTab="1" xr2:uid="{29E8190F-DBC0-46EE-A311-8F3489E8E6BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Stack" sheetId="1" r:id="rId1"/>
+    <sheet name="Hash" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,13 +106,58 @@
   </si>
   <si>
     <t>Basic Calculator IV【无敌难】</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>First Completed</t>
+  </si>
+  <si>
+    <t>Last Completed</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays II</t>
+  </si>
+  <si>
+    <t>Bulls and Cows</t>
+  </si>
+  <si>
+    <t>Design Tic-Tac-Toe</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>LinkedHashMap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +168,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
@@ -150,7 +212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -161,6 +223,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4674DA57-77AF-41B2-A9FB-0399C0341C86}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -664,6 +735,9 @@
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D11" s="3">
+        <v>44763</v>
+      </c>
       <c r="E11" s="3">
         <v>44845</v>
       </c>
@@ -708,6 +782,9 @@
       </c>
       <c r="D14" s="3">
         <v>44847</v>
+      </c>
+      <c r="E14" s="3">
+        <v>44848</v>
       </c>
     </row>
   </sheetData>
@@ -715,4 +792,127 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16318001-E263-B649-A973-40DF59F76DD0}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="15.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>146</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>128</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>380</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>350</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>299</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>348</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tags/tags.xlsx
+++ b/tags/tags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonia/Documents/CSStudy/LeetCode/Coding4Interviews/tags/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B1DECA-E029-8C44-9249-2FA9A3BFAEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A67E18-185E-5044-9147-F8EE29412EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19840" activeTab="1" xr2:uid="{29E8190F-DBC0-46EE-A311-8F3489E8E6BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>LinkedHashMap</t>
+  </si>
+  <si>
+    <t>HashSet</t>
   </si>
 </sst>
 </file>
@@ -843,8 +846,11 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="E2" s="3">
-        <v>44848</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -857,8 +863,8 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>35</v>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E3" s="3">
         <v>44849</v>

--- a/tags/tags.xlsx
+++ b/tags/tags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonia/Documents/CSStudy/LeetCode/Coding4Interviews/tags/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A67E18-185E-5044-9147-F8EE29412EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8C0F7D-7FAC-DC47-9875-B398D8674648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19840" activeTab="1" xr2:uid="{29E8190F-DBC0-46EE-A311-8F3489E8E6BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>HashSet</t>
+  </si>
+  <si>
+    <t>First Time Solved?</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -799,10 +805,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16318001-E263-B649-A973-40DF59F76DD0}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -811,12 +817,13 @@
     <col min="2" max="2" width="25.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="2"/>
     <col min="4" max="4" width="15.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="6" width="16.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
@@ -832,11 +839,14 @@
       <c r="E1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>146</v>
       </c>
@@ -852,8 +862,11 @@
       <c r="E2" s="3">
         <v>44849</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>128</v>
       </c>
@@ -869,8 +882,11 @@
       <c r="E3" s="3">
         <v>44849</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>73</v>
       </c>
@@ -878,7 +894,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>380</v>
       </c>
@@ -886,7 +902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>49</v>
       </c>
@@ -894,7 +910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>350</v>
       </c>
@@ -902,7 +918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>299</v>
       </c>
@@ -910,7 +926,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>348</v>
       </c>
@@ -920,5 +936,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>